--- a/tests/models/features/multi_intra_sets/input_data/input_data.xlsx
+++ b/tests/models/features/multi_intra_sets/input_data/input_data.xlsx
@@ -1,58 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\multi_intra_sets\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42400F05-7956-465F-9B76-8F3D976B619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F688C-D1EF-4EBC-B423-1EAC87AA476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="2110" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="V" sheetId="1" r:id="rId1"/>
+    <sheet name="dp" sheetId="4" r:id="rId1"/>
+    <sheet name="u" sheetId="5" r:id="rId2"/>
+    <sheet name="X" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dp!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">X!$A$1:$E$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>h_Names</t>
+  </si>
+  <si>
+    <t>t_Names</t>
+  </si>
+  <si>
     <t>p_Names</t>
   </si>
   <si>
-    <t>t_Names</t>
+    <t>values</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>h5</t>
   </si>
   <si>
     <t>y_Names</t>
   </si>
   <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>boiler</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>goods</t>
+    <t>s_Names</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>nze</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -414,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B6E5D7-19AA-434D-94F8-016B2D1BFF9A}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,11 +496,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2025</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -467,11 +513,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2026</v>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -482,13 +528,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2027</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -499,13 +545,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -516,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>2029</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -533,13 +579,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2030</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -547,13 +593,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -561,13 +610,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2026</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -575,13 +627,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2027</v>
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -589,13 +644,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -603,13 +661,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>2029</v>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -617,13 +678,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>2030</v>
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -631,13 +695,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -645,13 +712,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>2026</v>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -659,13 +729,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>2027</v>
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -673,13 +746,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -687,13 +763,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>2029</v>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -701,13 +780,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>2030</v>
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -715,13 +797,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>2025</v>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -729,13 +814,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>2026</v>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -743,13 +831,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>2027</v>
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -757,13 +848,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -771,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>2029</v>
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -785,13 +882,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>2030</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -799,16 +899,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>2025</v>
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -816,16 +916,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>2026</v>
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -833,16 +933,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>2027</v>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
       </c>
       <c r="E28">
-        <v>300</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -850,16 +950,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>2028</v>
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>400</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -867,16 +967,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>2029</v>
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
       </c>
       <c r="E30">
-        <v>500</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -884,373 +984,637 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>2030</v>
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50">
-        <v>2025</v>
-      </c>
-      <c r="E50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51">
-        <v>2026</v>
-      </c>
-      <c r="E51">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>2027</v>
-      </c>
-      <c r="E52">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53">
-        <v>2028</v>
-      </c>
-      <c r="E53">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54">
-        <v>2029</v>
-      </c>
-      <c r="E54">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55">
-        <v>2030</v>
-      </c>
-      <c r="E55">
-        <v>6000</v>
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C4848-9BE6-49FC-A6A0-E5FA523562B4}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2021</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>2021</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2021</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tests/models/features/multi_intra_sets/input_data/input_data.xlsx
+++ b/tests/models/features/multi_intra_sets/input_data/input_data.xlsx
@@ -8,33 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\pyesm\tests\models\features\multi_intra_sets\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F688C-D1EF-4EBC-B423-1EAC87AA476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81667D9C-C7D1-4DBE-B722-4AA25998E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2110" windowWidth="28800" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="dp" sheetId="4" r:id="rId1"/>
-    <sheet name="u" sheetId="5" r:id="rId2"/>
+    <sheet name="dp" sheetId="1" r:id="rId1"/>
+    <sheet name="u" sheetId="2" r:id="rId2"/>
     <sheet name="X" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dp!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">X!$A$1:$E$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -86,10 +69,10 @@
     <t>h5</t>
   </si>
   <si>
+    <t>s_Names</t>
+  </si>
+  <si>
     <t>y_Names</t>
-  </si>
-  <si>
-    <t>s_Names</t>
   </si>
   <si>
     <t>step</t>
@@ -460,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B6E5D7-19AA-434D-94F8-016B2D1BFF9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,28 +980,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3C4848-9BE6-49FC-A6A0-E5FA523562B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1127,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -1152,67 +1126,67 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>2020</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>2021</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>2022</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
         <v>2020</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -1220,401 +1194,396 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>2021</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
         <v>2022</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>2020</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
       <c r="E8">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>2021</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>2000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>2022</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
       <c r="E10">
-        <v>3000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>2020</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
         <v>2021</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="E12">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
         <v>2022</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
       <c r="E13">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
       <c r="E14">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
       <c r="E15">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
       <c r="E16">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
         <v>2020</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
       <c r="E17">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
         <v>2021</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18">
-        <v>4000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>2022</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
       <c r="E19">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
         <v>2020</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
       <c r="E20">
-        <v>50</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
         <v>2021</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
       <c r="E21">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>2022</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
       <c r="E22">
-        <v>150</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>2020</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
       <c r="E23">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>2021</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
       <c r="E24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
         <v>2022</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
       <c r="E25">
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
         <v>2020</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
       <c r="E26">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
         <v>2021</v>
       </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
       <c r="E27">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
         <v>2022</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
       <c r="E28">
-        <v>15000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E28">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>